--- a/going/SFF-8679/SFF-8679-timing.xlsx
+++ b/going/SFF-8679/SFF-8679-timing.xlsx
@@ -472,22 +472,863 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>由</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障状态到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故障位设置（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IntL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置位的时间。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>从条件触发标志到相关标志位设置（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IntL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>断言的时间。</t>
+    </r>
+  </si>
+  <si>
+    <t>Rx Squelch Assert Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx Squelch Deassert Time</t>
+  </si>
+  <si>
+    <t>Tx Squelch Assert Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tx Squelch Deassert Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tx Disable Assert Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tx Disable Deassert Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx Output Disable Assert Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx Output Disable Deassert Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squelch Disable Assert Time</t>
+  </si>
+  <si>
+    <t>Squelch Disable Deassert Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ton_Rxsq</t>
+  </si>
+  <si>
+    <t>toff_Rxsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ton_Txsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toff_Txsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ton_TxDis</t>
+  </si>
+  <si>
+    <t>toff_TxDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ton_RxDis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> toff_RxDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ton_sqDIS</t>
+  </si>
+  <si>
+    <t>toff_sqDIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time from loss of Rx input signal until the squelched output condition is reached. See Subclause 4.1.3.1.</t>
+  </si>
+  <si>
+    <t>Time from resumption of Rx input signals until normal Rx output condition is reached. See Subclause 4.1.3.1.</t>
+  </si>
+  <si>
+    <t>Time from loss of Tx input signal until the squelched output condition is reached. See Subclause 4.1.3.2.</t>
+  </si>
+  <si>
+    <t>Time from resumption of Tx input signals until normal Rx output condition is reached. See Subclause 4.1.3.2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time from Tx Disable bit set (value = 1b)*1 until optical output falls below 10% of nominal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time from Tx Disable bit cleared (value = 0b)*1 until optical output rises above 90% of nominal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time from Rx Output Disable bit set (value = 1b)*1 until Rx output falls below 10% of nominal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time from Rx Output Disable bit cleared (value = 0b)*1 until Rx output rises above 90% of nominal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This applies to Rx and Tx Squelch and is the time from bit cleared (value =0b)*1 until squelch functionality is enabled.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This applies to Rx and Tx Squelch and is the time from bit set (value =1b)*1 until squelch functionality is disabled.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入信号丢失直到达到静噪输出条件的时间。见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.1.3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>恢复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入信号直到正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出条件达到的时间。见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.1.3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>恢复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入信号直到达到正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出条件的时间。见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.1.3.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从写入事务的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>STOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位之后的下降时钟沿测量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从电源开始到模块通过双线串行总线响应数据传输的时间。*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从相关标志的清零读操作到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IntL = Voh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx LOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tx Fault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和其他标志位的无效时间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx LOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx LOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IntL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置位的时间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这适用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静噪，并且是从位设置（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）到静噪功能禁用的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这适用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静噪，是从位清零（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 0b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）到静噪功能使能的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从电源开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，热插拔或复位上升沿直到模块完全正常工作的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该时间不适用于低功耗状态下的非功率级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>ResetL</t>
     </r>
     <r>
@@ -498,7 +1339,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>输入上存在的</t>
+      <t>上输入超过</t>
     </r>
     <r>
       <rPr>
@@ -530,7 +1371,146 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>断言</t>
+      <t>从上电到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DataNotReady</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（字节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）设为无效和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ntL输出置为有效的时间。*2_x0000__x0008__x0004_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ResetL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入上升沿开始直到模块完全运行的时间，。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从断言</t>
     </r>
     <r>
       <rPr>
@@ -587,7 +1567,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）的时间，直到模块功耗达到功率级别</t>
+      <t>）直到模块功耗达到功率级别</t>
     </r>
     <r>
       <rPr>
@@ -606,83 +1586,464 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>的时间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LPMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LPMode = Vil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）取消直到模块完全运行的时间，。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*3*5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IntL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Vout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IntL = Vol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从掩码位置位（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）到相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IntL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>断言被禁止的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>屏蔽位清零的时间（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 0b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）直到相关的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IntL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作恢复。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>变更状态或速率选择位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>* 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直到发送器或接收器带宽符合适当的规格的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P_Down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位设置直到模块功耗达到功率级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时间（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P_Down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位清零（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 0b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）直到模块完全运行的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入信号丢失到达到静噪输出条件的时间。见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.1.3.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>条件触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Vout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL = Vol</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从</t>
+      <t>自</t>
     </r>
     <r>
       <rPr>
@@ -701,7 +2062,60 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>故障状态到</t>
+      <t>禁用位置位（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）的直到光输出低于标称值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>％时间，。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自</t>
     </r>
     <r>
       <rPr>
@@ -720,7 +2134,89 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>故障位设置（值</t>
+      <t>禁用位清零（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 0b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），直到光输出上升到额定值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>％以上的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出禁止位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（值</t>
     </r>
     <r>
       <rPr>
@@ -739,185 +2235,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>置位的时间。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>从条件触发标志到相关标志位设置（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 1b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>断言的时间。</t>
-    </r>
-  </si>
-  <si>
-    <t>Rx Squelch Assert Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rx Squelch Deassert Time</t>
-  </si>
-  <si>
-    <t>Tx Squelch Assert Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tx Squelch Deassert Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tx Disable Assert Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tx Disable Deassert Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rx Output Disable Assert Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rx Output Disable Deassert Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Squelch Disable Assert Time</t>
-  </si>
-  <si>
-    <t>Squelch Disable Deassert Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ton_Rxsq</t>
-  </si>
-  <si>
-    <t>toff_Rxsq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ton_Txsq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toff_Txsq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ton_TxDis</t>
-  </si>
-  <si>
-    <t>toff_TxDis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ton_RxDis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> toff_RxDis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ton_sqDIS</t>
-  </si>
-  <si>
-    <t>toff_sqDIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time from loss of Rx input signal until the squelched output condition is reached. See Subclause 4.1.3.1.</t>
-  </si>
-  <si>
-    <t>Time from resumption of Rx input signals until normal Rx output condition is reached. See Subclause 4.1.3.1.</t>
-  </si>
-  <si>
-    <t>Time from loss of Tx input signal until the squelched output condition is reached. See Subclause 4.1.3.2.</t>
-  </si>
-  <si>
-    <t>Time from resumption of Tx input signals until normal Rx output condition is reached. See Subclause 4.1.3.2.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time from Tx Disable bit set (value = 1b)*1 until optical output falls below 10% of nominal.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time from Tx Disable bit cleared (value = 0b)*1 until optical output rises above 90% of nominal.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time from Rx Output Disable bit set (value = 1b)*1 until Rx output falls below 10% of nominal.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time from Rx Output Disable bit cleared (value = 0b)*1 until Rx output rises above 90% of nominal.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This applies to Rx and Tx Squelch and is the time from bit cleared (value =0b)*1 until squelch functionality is enabled.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This applies to Rx and Tx Squelch and is the time from bit set (value =1b)*1 until squelch functionality is disabled.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从</t>
+      <t>），直到</t>
     </r>
     <r>
       <rPr>
@@ -936,39 +2254,40 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>输入信号丢失直到达到静噪输出条件的时间。见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.1.3.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>恢复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+      <t>输出低于标称值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>％的时间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>Rx</t>
     </r>
     <r>
@@ -979,7 +2298,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>输入信号直到正常</t>
+      <t>输出禁止位清零（值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= 0b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），直到</t>
     </r>
     <r>
       <rPr>
@@ -998,1095 +2336,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>输出条件达到的时间。见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.1.3.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入信号丢失到达到压扁输出条件的时间。见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.1.3.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>恢复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入信号直到达到正常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出条件的时间。见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.1.3.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从写入事务的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>STOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位之后的下降时钟沿测量。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电源开启，热插拔或复位上升沿的时间，直到模块完全正常工作。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*2*3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>此时不适用于低功耗状态下的非功率级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从电源开始到模块通过双线串行总线响应数据传输的时间。*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从上电到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DataNotReady</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时间，字节</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，无效和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出置为有效。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ResetL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入上升沿开始的时间，直到模块完全运行。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LPMode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Vin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LPMode = Vil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）取消取消的时间，直到模块完全运行。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*3*5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从相关标志的清零读操作到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Vout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL = Voh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时间。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rx LOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tx Fault</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和其他标志位的无效时间。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rx LOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rx LOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 1b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>置位的时间。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>P_Down</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位清零的时间（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 0b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），直到模块完全运行。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>P_Down</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位设置的时间（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 1b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），直到模块功耗达到功率级别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>变更状态或速率选择位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>* 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时间，直到发送器或接收器带宽符合适当的规格。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>屏蔽位清零的时间（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 0b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），直到相关的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作恢复。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从掩码位置位（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 1b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）到相关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IntL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>断言的时间被禁止。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>这适用于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>静噪，并且是从位设置（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 1b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）到静噪功能禁用的时间。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>这适用于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>静噪，是从位清零（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 0b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）到静噪功能使能的时间。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Rx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出时间禁止位清零（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 0b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），直到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>输出上升到额定值的</t>
     </r>
     <r>
@@ -2106,252 +2355,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>％以上。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Rx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出时间禁止位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 1b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），直到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Rx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出低于标称值的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>％。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>来自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时间禁用位清零（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 0b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），直到光输出上升到额定值的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>％以上。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>来自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时间禁用位置位（值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>= 1b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>），直到光输出低于标称值的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>％。</t>
+      <t>％以上的时间。</t>
     </r>
     <r>
       <rPr>
@@ -2465,13 +2469,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2777,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3097,49 +3101,49 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -3158,7 +3162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -3189,7 +3193,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -3205,11 +3209,11 @@
       <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="E29" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -3240,7 +3244,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -3257,7 +3261,7 @@
         <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -3273,8 +3277,8 @@
       <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>113</v>
+      <c r="E33" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -3291,7 +3295,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -3307,8 +3311,8 @@
       <c r="D35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>114</v>
+      <c r="E35" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -3324,8 +3328,8 @@
       <c r="D36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>115</v>
+      <c r="E36" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -3341,8 +3345,8 @@
       <c r="D37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>72</v>
+      <c r="E37" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
@@ -3358,8 +3362,8 @@
       <c r="D38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>73</v>
+      <c r="E38" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -3375,8 +3379,8 @@
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>120</v>
+      <c r="E39" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -3392,8 +3396,8 @@
       <c r="D40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>119</v>
+      <c r="E40" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -3409,8 +3413,8 @@
       <c r="D41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>118</v>
+      <c r="E41" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -3426,8 +3430,8 @@
       <c r="D42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>117</v>
+      <c r="E42" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
@@ -3443,54 +3447,54 @@
       <c r="D43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>116</v>
+      <c r="E43" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3515,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3547,10 +3551,10 @@
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2">
         <v>80</v>
@@ -3559,15 +3563,15 @@
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2">
         <v>80</v>
@@ -3576,15 +3580,15 @@
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2">
         <v>400</v>
@@ -3593,15 +3597,15 @@
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2">
         <v>400</v>
@@ -3610,15 +3614,15 @@
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -3627,15 +3631,15 @@
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2">
         <v>400</v>
@@ -3644,15 +3648,15 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
@@ -3661,15 +3665,15 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -3678,15 +3682,15 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
@@ -3695,15 +3699,15 @@
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
@@ -3712,17 +3716,17 @@
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -3743,10 +3747,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2">
         <v>80</v>
@@ -3754,16 +3758,16 @@
       <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>104</v>
+      <c r="E17" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2">
         <v>80</v>
@@ -3771,16 +3775,16 @@
       <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>105</v>
+      <c r="E18" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2">
         <v>400</v>
@@ -3788,16 +3792,16 @@
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>106</v>
+      <c r="E19" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2">
         <v>400</v>
@@ -3805,16 +3809,16 @@
       <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
+      <c r="E20" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2">
         <v>100</v>
@@ -3822,16 +3826,16 @@
       <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>126</v>
+      <c r="E21" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2">
         <v>400</v>
@@ -3839,16 +3843,16 @@
       <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>125</v>
+      <c r="E22" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2">
         <v>100</v>
@@ -3857,15 +3861,15 @@
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2">
         <v>100</v>
@@ -3874,15 +3878,15 @@
         <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2">
         <v>100</v>
@@ -3890,16 +3894,16 @@
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>122</v>
+      <c r="E25" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2">
         <v>100</v>
@@ -3907,18 +3911,18 @@
       <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>121</v>
+      <c r="E26" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3934,7 +3938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/going/SFF-8679/SFF-8679-timing.xlsx
+++ b/going/SFF-8679/SFF-8679-timing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7380" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="SOFT CONTROL AND STATUS TIMING" sheetId="1" r:id="rId1"/>
@@ -2453,7 +2453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2473,6 +2473,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2781,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2790,7 +2793,7 @@
     <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
     <col min="4" max="4" width="4.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -3101,72 +3104,72 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:5" ht="50.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="4">
@@ -3179,11 +3182,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="4">
@@ -3197,10 +3200,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="4">
@@ -3213,11 +3216,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="4">
@@ -3230,11 +3233,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="4">
@@ -3247,8 +3250,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3264,7 +3267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3298,11 +3301,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:5" ht="50.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="4">
@@ -3315,11 +3318,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="4">
@@ -3332,7 +3335,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -3366,7 +3369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -3383,11 +3386,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="4">
@@ -3400,11 +3403,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:5" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="4">
@@ -3417,11 +3420,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="4">
@@ -3435,7 +3438,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3452,49 +3455,49 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3519,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3528,7 +3531,7 @@
     <col min="1" max="1" width="24.75" style="3" customWidth="1"/>
     <col min="2" max="3" width="9" style="3"/>
     <col min="4" max="4" width="7.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -3720,195 +3723,195 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>80</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>80</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="7">
         <v>400</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>400</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>100</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="7">
         <v>400</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>100</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>100</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>100</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>100</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -3916,13 +3919,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
